--- a/static/download/买家号导入模板.xlsx
+++ b/static/download/买家号导入模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3090" windowHeight="220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3096" windowHeight="216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AMZ(或:AE)</t>
+    <t>AMZ(或:SMT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,12 +191,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +236,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,86 +559,86 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>

--- a/static/download/买家号导入模板.xlsx
+++ b/static/download/买家号导入模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>邮箱账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012/09/123333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,7 +555,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -574,6 +570,7 @@
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,7 +628,7 @@
       <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -655,13 +652,13 @@
         <v>41193</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -690,11 +687,11 @@
       <c r="R2">
         <v>12345432</v>
       </c>
-      <c r="S2" t="s">
-        <v>28</v>
+      <c r="S2" s="1">
+        <v>41164</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
